--- a/데이터베이스/데이터베이스 기말/인공_dy242DB1-SQL실습02-w12-답안.xlsx
+++ b/데이터베이스/데이터베이스 기말/인공_dy242DB1-SQL실습02-w12-답안.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="현재_통합_문서" checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\AI1_2_1\데이터베이스\데이터베이스 기말\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18564" windowHeight="7308" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="복습-freshman" sheetId="94" r:id="rId1"/>
@@ -34,19 +34,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="126">
   <si>
     <t>연구부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>홍보부</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>-- 실행결과는 무엇인가?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>대전</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -63,11 +63,11 @@
       </rPr>
       <t xml:space="preserve"> 2]</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>조인</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -84,7 +84,7 @@
       </rPr>
       <t>reshman, dmember</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -101,7 +101,7 @@
       </rPr>
       <t>reshman</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -118,7 +118,7 @@
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -135,79 +135,79 @@
       </rPr>
       <t>ddress</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>김광식</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>김현정</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>조영수</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>서울</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>대전</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>dmember</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>dept_name</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>이진영</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>컴퓨터공학과</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>산업공학과</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>전자공학과</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SELECT *</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FROM   freshman, dmember</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>WHERE freshman.name = dmember.name;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FROM   freshman LEFT OUTER JOIN dmember</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ON freshman.name = dmember.name;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FROM   freshman RIGHT OUTER JOIN dmember</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FROM   freshman FULL OUTER JOIN dmember</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -224,7 +224,7 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -241,11 +241,11 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>관계대수</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -262,7 +262,7 @@
       </rPr>
       <t>1, S1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -279,7 +279,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -296,31 +296,31 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>카티션 프로덕트</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -337,11 +337,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>동등 조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -358,11 +358,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>자연조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,11 +379,11 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>세타 조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -400,43 +400,43 @@
       </rPr>
       <t>) 카티션 프로덕트</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FROM  R1, S1;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2) 동등 조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FROM  R1, S1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>WHERE R1.A = S1.A;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3) 자연 조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SELECT R1.A, B, C, D</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4) 세타 조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>WHERE R1.A &gt;= S1.C;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4) 완전 외부조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -453,7 +453,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -470,7 +470,7 @@
       </rPr>
       <t>roupid</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -487,7 +487,7 @@
       </rPr>
       <t>osition</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -515,11 +515,11 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>omember, group_ex</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -536,7 +536,7 @@
       </rPr>
       <t>member</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -553,59 +553,59 @@
       </rPr>
       <t>roup_ex</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>내부조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>왼쪽 외부조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>오른쪽 외부조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>대구</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>완전 외부조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>광주</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>부산</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -622,31 +622,31 @@
       </rPr>
       <t>) 내부조인</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FROM   omember INNER JOIN group_ex</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ON       omember.groupid = group_ex.groupid;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2) 왼쪽 외부조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FROM   omember LEFT OUTER JOIN group_ex</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3) 오른쪽 외부조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FROM   omember RIGHT OUTER JOIN group_ex</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -674,87 +674,87 @@
       </rPr>
       <t>]</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>emp, project</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>emp</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>project</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ename</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>pno</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>pname</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>홍길동</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>작전중</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>임꺽정</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>특공대</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>박찬호</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>유레카</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>다모여</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>신동엽</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NULL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>FROM   emp INNER JOIN project</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ON       emp.pno = project.pno;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FROM   emp LEFT OUTER JOIN project</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FROM   emp RIGHT OUTER JOIN project</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -771,7 +771,7 @@
       </rPr>
       <t>ULL</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -788,7 +788,7 @@
       </rPr>
       <t>ULL</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SELECT *</t>
@@ -810,11 +810,11 @@
   </si>
   <si>
     <t>동등조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>동등조인)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -831,7 +831,7 @@
       </rPr>
       <t>elect *</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -848,31 +848,31 @@
       </rPr>
       <t>rom omember,group_ex</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>where omember.groupid=group_ex.groupid;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>내부조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>자연조인)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>select omember.groupid,id,position</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>from omember,group_ex</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>자연조인</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -889,7 +889,7 @@
       </rPr>
       <t>ULL</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -906,40 +906,35 @@
       </rPr>
       <t>ULL</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>SELECT *</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nion</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>union</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1082,7 +1077,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
@@ -1091,22 +1089,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1114,61 +1109,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,7 +1212,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1264,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +1319,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1376,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1433,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1490,7 +1485,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1539,7 +1534,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1586,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D4AD57B-63BC-4B8C-9106-C462ED55B218}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4AD57B-63BC-4B8C-9106-C462ED55B218}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1641,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="화살표_019_01.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1693,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D4AD57B-63BC-4B8C-9106-C462ED55B218}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4AD57B-63BC-4B8C-9106-C462ED55B218}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2135,7 @@
       <c r="E12" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2663,7 +2658,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3441,7 +3436,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3452,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -3990,7 +3985,7 @@
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="15" t="s">
         <v>125</v>
       </c>
       <c r="K50" s="13" t="s">
@@ -4046,7 +4041,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4193,7 +4188,7 @@
       <c r="I12" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4400,7 +4395,7 @@
       <c r="E27" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
